--- a/3.傅里叶变换/DFT离散傅里叶变换.xlsx
+++ b/3.傅里叶变换/DFT离散傅里叶变换.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jupyter_run\digital-image-processing\3.傅里叶变换\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="32">
   <si>
     <t>周期T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Excel计算傅里叶变化FFT_excel 傅里叶变换-CSDN博客</t>
+  </si>
+  <si>
+    <t>一窥数字傅里叶变换矩阵_dft矩阵-CSDN博客</t>
   </si>
 </sst>
 </file>
@@ -8382,12 +8385,12 @@
   <dimension ref="A1:K1025"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8395,7 +8398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8414,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8449,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8468,7 +8471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8490,7 +8493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8520,7 +8523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8550,7 +8553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8580,7 +8583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8610,7 +8613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8640,7 +8643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8670,7 +8673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8749,7 +8752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8768,7 +8771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8806,7 +8809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8821,8 +8824,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8838,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8854,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8870,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8886,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8902,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8918,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8934,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8950,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8966,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8982,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8998,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9014,7 +9020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9030,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9046,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9062,7 +9068,7 @@
         <v>652.9470231922129</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9078,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9094,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9110,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -9126,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -9142,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -9158,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -9174,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -9190,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -9206,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -9222,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -9238,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -9254,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -9270,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -9286,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -9302,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -9318,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -9334,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
@@ -9350,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
@@ -9366,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
@@ -9382,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9398,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
@@ -9414,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
@@ -9430,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
@@ -9446,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
@@ -9462,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -9478,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -9494,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -9510,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -9526,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -9542,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -9558,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -9574,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -9590,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -9606,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -9622,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -9638,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
@@ -9654,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
@@ -9670,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
@@ -9686,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>72</v>
       </c>
@@ -9702,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
@@ -9718,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>74</v>
       </c>
@@ -9734,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
@@ -9750,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>76</v>
       </c>
@@ -9766,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>77</v>
       </c>
@@ -9782,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>78</v>
       </c>
@@ -9798,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>79</v>
       </c>
@@ -9814,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>80</v>
       </c>
@@ -9830,7 +9836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>81</v>
       </c>
@@ -9846,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>82</v>
       </c>
@@ -9862,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>83</v>
       </c>
@@ -9878,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>84</v>
       </c>
@@ -9894,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>85</v>
       </c>
@@ -9910,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>86</v>
       </c>
@@ -9926,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>87</v>
       </c>
@@ -9942,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>88</v>
       </c>
@@ -9958,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>89</v>
       </c>
@@ -9974,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>90</v>
       </c>
@@ -9990,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>91</v>
       </c>
@@ -10006,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>92</v>
       </c>
@@ -10022,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>93</v>
       </c>
@@ -10038,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>94</v>
       </c>
@@ -10054,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>95</v>
       </c>
@@ -10070,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>96</v>
       </c>
@@ -10086,7 +10092,7 @@
         <v>220.47322857450612</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>97</v>
       </c>
@@ -10102,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>98</v>
       </c>
@@ -10118,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>99</v>
       </c>
@@ -10134,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>100</v>
       </c>
@@ -10150,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>101</v>
       </c>
@@ -10166,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>102</v>
       </c>
@@ -10182,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>103</v>
       </c>
@@ -10198,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>104</v>
       </c>
@@ -10214,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>105</v>
       </c>
@@ -10230,7 +10236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>106</v>
       </c>
@@ -10246,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>107</v>
       </c>
@@ -10262,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>108</v>
       </c>
@@ -10278,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>109</v>
       </c>
@@ -10294,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>110</v>
       </c>
@@ -10310,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>111</v>
       </c>
@@ -10326,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>112</v>
       </c>
@@ -10342,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>113</v>
       </c>
@@ -10358,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>114</v>
       </c>
@@ -10374,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>115</v>
       </c>
@@ -10390,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>116</v>
       </c>
@@ -10406,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>117</v>
       </c>
@@ -10422,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>118</v>
       </c>
@@ -10438,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>119</v>
       </c>
@@ -10454,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>120</v>
       </c>
@@ -10470,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>121</v>
       </c>
@@ -10486,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>122</v>
       </c>
@@ -10502,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>123</v>
       </c>
@@ -10518,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>124</v>
       </c>
@@ -10534,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>125</v>
       </c>
@@ -10550,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>126</v>
       </c>
@@ -10566,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>127</v>
       </c>
@@ -10582,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>128</v>
       </c>
@@ -10598,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>129</v>
       </c>
@@ -10614,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>130</v>
       </c>
@@ -10630,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>131</v>
       </c>
@@ -10646,7 +10652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>132</v>
       </c>
@@ -10662,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>133</v>
       </c>
@@ -10678,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>134</v>
       </c>
@@ -10694,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>135</v>
       </c>
@@ -10710,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>136</v>
       </c>
@@ -10726,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>137</v>
       </c>
@@ -10742,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>138</v>
       </c>
@@ -10758,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>139</v>
       </c>
@@ -10774,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>140</v>
       </c>
@@ -10790,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>141</v>
       </c>
@@ -10806,7 +10812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>142</v>
       </c>
@@ -10822,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>143</v>
       </c>
@@ -10838,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>144</v>
       </c>
@@ -10854,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>145</v>
       </c>
@@ -10870,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>146</v>
       </c>
@@ -10886,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>147</v>
       </c>
@@ -10902,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>148</v>
       </c>
@@ -10918,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>149</v>
       </c>
@@ -10934,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>150</v>
       </c>
@@ -10950,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>151</v>
       </c>
@@ -10966,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>152</v>
       </c>
@@ -10982,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>153</v>
       </c>
@@ -10998,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>154</v>
       </c>
@@ -11014,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>155</v>
       </c>
@@ -11030,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>156</v>
       </c>
@@ -11046,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>157</v>
       </c>
@@ -11062,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>158</v>
       </c>
@@ -11078,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>159</v>
       </c>
@@ -11094,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>160</v>
       </c>
@@ -11110,7 +11116,7 @@
         <v>135.7667438067644</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>161</v>
       </c>
@@ -11126,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>162</v>
       </c>
@@ -11142,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>163</v>
       </c>
@@ -11158,7 +11164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>164</v>
       </c>
@@ -11174,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>165</v>
       </c>
@@ -11190,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>166</v>
       </c>
@@ -11206,7 +11212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>167</v>
       </c>
@@ -11222,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>168</v>
       </c>
@@ -11238,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>169</v>
       </c>
@@ -11254,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>170</v>
       </c>
@@ -11270,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>171</v>
       </c>
@@ -11286,7 +11292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>172</v>
       </c>
@@ -11302,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>173</v>
       </c>
@@ -11318,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>174</v>
       </c>
@@ -11334,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>175</v>
       </c>
@@ -11350,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>176</v>
       </c>
@@ -11366,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>177</v>
       </c>
@@ -11382,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>178</v>
       </c>
@@ -11398,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>179</v>
       </c>
@@ -11414,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>180</v>
       </c>
@@ -11430,7 +11436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>181</v>
       </c>
@@ -11446,7 +11452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>182</v>
       </c>
@@ -11462,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>183</v>
       </c>
@@ -11478,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>184</v>
       </c>
@@ -11494,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>185</v>
       </c>
@@ -11510,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>186</v>
       </c>
@@ -11526,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>187</v>
       </c>
@@ -11542,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>188</v>
       </c>
@@ -11558,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>189</v>
       </c>
@@ -11574,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>190</v>
       </c>
@@ -11590,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>191</v>
       </c>
@@ -11606,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>192</v>
       </c>
@@ -11622,7 +11628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>193</v>
       </c>
@@ -11638,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>194</v>
       </c>
@@ -11654,7 +11660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>195</v>
       </c>
@@ -11670,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>196</v>
       </c>
@@ -11686,7 +11692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>197</v>
       </c>
@@ -11702,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>198</v>
       </c>
@@ -11718,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>199</v>
       </c>
@@ -11734,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>200</v>
       </c>
@@ -11750,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>201</v>
       </c>
@@ -11766,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>202</v>
       </c>
@@ -11782,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>203</v>
       </c>
@@ -11798,7 +11804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>204</v>
       </c>
@@ -11814,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>205</v>
       </c>
@@ -11830,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>206</v>
       </c>
@@ -11846,7 +11852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>207</v>
       </c>
@@ -11862,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>208</v>
       </c>
@@ -11878,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>209</v>
       </c>
@@ -11894,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>210</v>
       </c>
@@ -11910,7 +11916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>211</v>
       </c>
@@ -11926,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>212</v>
       </c>
@@ -11942,7 +11948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>213</v>
       </c>
@@ -11958,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>214</v>
       </c>
@@ -11974,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>215</v>
       </c>
@@ -11990,7 +11996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>216</v>
       </c>
@@ -12006,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>217</v>
       </c>
@@ -12022,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>218</v>
       </c>
@@ -12038,7 +12044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>219</v>
       </c>
@@ -12054,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>220</v>
       </c>
@@ -12070,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>221</v>
       </c>
@@ -12086,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>222</v>
       </c>
@@ -12102,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>223</v>
       </c>
@@ -12118,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>224</v>
       </c>
@@ -12134,7 +12140,7 @@
         <v>100.8837918017595</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>225</v>
       </c>
@@ -12150,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>226</v>
       </c>
@@ -12166,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>227</v>
       </c>
@@ -12182,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>228</v>
       </c>
@@ -12198,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>229</v>
       </c>
@@ -12214,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>230</v>
       </c>
@@ -12230,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>231</v>
       </c>
@@ -12246,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>232</v>
       </c>
@@ -12262,7 +12268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>233</v>
       </c>
@@ -12278,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>234</v>
       </c>
@@ -12294,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>235</v>
       </c>
@@ -12310,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>236</v>
       </c>
@@ -12326,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>237</v>
       </c>
@@ -12342,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>238</v>
       </c>
@@ -12358,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>239</v>
       </c>
@@ -12374,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>240</v>
       </c>
@@ -12390,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>241</v>
       </c>
@@ -12406,7 +12412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>242</v>
       </c>
@@ -12422,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>243</v>
       </c>
@@ -12438,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>244</v>
       </c>
@@ -12454,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>245</v>
       </c>
@@ -12470,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>246</v>
       </c>
@@ -12486,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>247</v>
       </c>
@@ -12502,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>248</v>
       </c>
@@ -12518,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>249</v>
       </c>
@@ -12534,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>250</v>
       </c>
@@ -12550,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>251</v>
       </c>
@@ -12566,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>252</v>
       </c>
@@ -12582,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>253</v>
       </c>
@@ -12598,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>254</v>
       </c>
@@ -12614,7 +12620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>255</v>
       </c>
@@ -12630,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>256</v>
       </c>
@@ -12646,7 +12652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>257</v>
       </c>
@@ -12662,7 +12668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>258</v>
       </c>
@@ -12678,7 +12684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>259</v>
       </c>
@@ -12694,7 +12700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>260</v>
       </c>
@@ -12710,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>261</v>
       </c>
@@ -12726,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>262</v>
       </c>
@@ -12742,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>263</v>
       </c>
@@ -12758,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>264</v>
       </c>
@@ -12774,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>265</v>
       </c>
@@ -12790,7 +12796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>266</v>
       </c>
@@ -12806,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>267</v>
       </c>
@@ -12822,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>268</v>
       </c>
@@ -12838,7 +12844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>269</v>
       </c>
@@ -12854,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>270</v>
       </c>
@@ -12870,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>271</v>
       </c>
@@ -12886,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>272</v>
       </c>
@@ -12902,7 +12908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>273</v>
       </c>
@@ -12918,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>274</v>
       </c>
@@ -12934,7 +12940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>275</v>
       </c>
@@ -12950,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>276</v>
       </c>
@@ -12966,7 +12972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>277</v>
       </c>
@@ -12982,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>278</v>
       </c>
@@ -12998,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>279</v>
       </c>
@@ -13014,7 +13020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>280</v>
       </c>
@@ -13030,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>281</v>
       </c>
@@ -13046,7 +13052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>282</v>
       </c>
@@ -13062,7 +13068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>283</v>
       </c>
@@ -13078,7 +13084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>284</v>
       </c>
@@ -13094,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>285</v>
       </c>
@@ -13110,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>286</v>
       </c>
@@ -13126,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>287</v>
       </c>
@@ -13142,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>288</v>
       </c>
@@ -13158,7 +13164,7 @@
         <v>82.793188270078602</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>289</v>
       </c>
@@ -13174,7 +13180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>290</v>
       </c>
@@ -13190,7 +13196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>291</v>
       </c>
@@ -13206,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>292</v>
       </c>
@@ -13222,7 +13228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>293</v>
       </c>
@@ -13238,7 +13244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>294</v>
       </c>
@@ -13254,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>295</v>
       </c>
@@ -13270,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>296</v>
       </c>
@@ -13286,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>297</v>
       </c>
@@ -13302,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>298</v>
       </c>
@@ -13318,7 +13324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>299</v>
       </c>
@@ -13334,7 +13340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>300</v>
       </c>
@@ -13350,7 +13356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>301</v>
       </c>
@@ -13366,7 +13372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>302</v>
       </c>
@@ -13382,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>303</v>
       </c>
@@ -13398,7 +13404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>304</v>
       </c>
@@ -13414,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>305</v>
       </c>
@@ -13430,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>306</v>
       </c>
@@ -13446,7 +13452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>307</v>
       </c>
@@ -13462,7 +13468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>308</v>
       </c>
@@ -13478,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>309</v>
       </c>
@@ -13494,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>310</v>
       </c>
@@ -13510,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>311</v>
       </c>
@@ -13526,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>312</v>
       </c>
@@ -13542,7 +13548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>313</v>
       </c>
@@ -13558,7 +13564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>314</v>
       </c>
@@ -13574,7 +13580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>315</v>
       </c>
@@ -13590,7 +13596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>316</v>
       </c>
@@ -13606,7 +13612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>317</v>
       </c>
@@ -13622,7 +13628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>318</v>
       </c>
@@ -13638,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>319</v>
       </c>
@@ -13654,7 +13660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>320</v>
       </c>
@@ -13670,7 +13676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>321</v>
       </c>
@@ -13686,7 +13692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>322</v>
       </c>
@@ -13702,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>323</v>
       </c>
@@ -13718,7 +13724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>324</v>
       </c>
@@ -13734,7 +13740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>325</v>
       </c>
@@ -13750,7 +13756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>326</v>
       </c>
@@ -13766,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>327</v>
       </c>
@@ -13782,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>328</v>
       </c>
@@ -13798,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>329</v>
       </c>
@@ -13814,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>330</v>
       </c>
@@ -13830,7 +13836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>331</v>
       </c>
@@ -13846,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>332</v>
       </c>
@@ -13862,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>333</v>
       </c>
@@ -13878,7 +13884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>334</v>
       </c>
@@ -13894,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>335</v>
       </c>
@@ -13910,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>336</v>
       </c>
@@ -13926,7 +13932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>337</v>
       </c>
@@ -13942,7 +13948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>338</v>
       </c>
@@ -13958,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>339</v>
       </c>
@@ -13974,7 +13980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>340</v>
       </c>
@@ -13990,7 +13996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>341</v>
       </c>
@@ -14006,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>342</v>
       </c>
@@ -14022,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>343</v>
       </c>
@@ -14038,7 +14044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>344</v>
       </c>
@@ -14054,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>345</v>
       </c>
@@ -14070,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>346</v>
       </c>
@@ -14086,7 +14092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>347</v>
       </c>
@@ -14102,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>348</v>
       </c>
@@ -14118,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>349</v>
       </c>
@@ -14134,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>350</v>
       </c>
@@ -14150,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>351</v>
       </c>
@@ -14166,7 +14172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>352</v>
       </c>
@@ -14182,7 +14188,7 @@
         <v>72.568836456493628</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>353</v>
       </c>
@@ -14198,7 +14204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>354</v>
       </c>
@@ -14214,7 +14220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>355</v>
       </c>
@@ -14230,7 +14236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>356</v>
       </c>
@@ -14246,7 +14252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>357</v>
       </c>
@@ -14262,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>358</v>
       </c>
@@ -14278,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>359</v>
       </c>
@@ -14294,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>360</v>
       </c>
@@ -14310,7 +14316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>361</v>
       </c>
@@ -14326,7 +14332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>362</v>
       </c>
@@ -14342,7 +14348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>363</v>
       </c>
@@ -14358,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>364</v>
       </c>
@@ -14374,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>365</v>
       </c>
@@ -14390,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>366</v>
       </c>
@@ -14406,7 +14412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>367</v>
       </c>
@@ -14422,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>368</v>
       </c>
@@ -14438,7 +14444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>369</v>
       </c>
@@ -14454,7 +14460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>370</v>
       </c>
@@ -14470,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>371</v>
       </c>
@@ -14486,7 +14492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>372</v>
       </c>
@@ -14502,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>373</v>
       </c>
@@ -14518,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>374</v>
       </c>
@@ -14534,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>375</v>
       </c>
@@ -14550,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>376</v>
       </c>
@@ -14566,7 +14572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>377</v>
       </c>
@@ -14582,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>378</v>
       </c>
@@ -14598,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>379</v>
       </c>
@@ -14614,7 +14620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>380</v>
       </c>
@@ -14630,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>381</v>
       </c>
@@ -14646,7 +14652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>382</v>
       </c>
@@ -14662,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>383</v>
       </c>
@@ -14678,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>384</v>
       </c>
@@ -14694,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>385</v>
       </c>
@@ -14710,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>386</v>
       </c>
@@ -14726,7 +14732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>387</v>
       </c>
@@ -14742,7 +14748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>388</v>
       </c>
@@ -14758,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>389</v>
       </c>
@@ -14774,7 +14780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>390</v>
       </c>
@@ -14790,7 +14796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>391</v>
       </c>
@@ -14806,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>392</v>
       </c>
@@ -14822,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>393</v>
       </c>
@@ -14838,7 +14844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>394</v>
       </c>
@@ -14854,7 +14860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>395</v>
       </c>
@@ -14870,7 +14876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>396</v>
       </c>
@@ -14886,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>397</v>
       </c>
@@ -14902,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>398</v>
       </c>
@@ -14918,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>399</v>
       </c>
@@ -14934,7 +14940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>400</v>
       </c>
@@ -14950,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>401</v>
       </c>
@@ -14966,7 +14972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>402</v>
       </c>
@@ -14982,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>403</v>
       </c>
@@ -14998,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>404</v>
       </c>
@@ -15014,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>405</v>
       </c>
@@ -15030,7 +15036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>406</v>
       </c>
@@ -15046,7 +15052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>407</v>
       </c>
@@ -15062,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>408</v>
       </c>
@@ -15078,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>409</v>
       </c>
@@ -15094,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>410</v>
       </c>
@@ -15110,7 +15116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>411</v>
       </c>
@@ -15126,7 +15132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>412</v>
       </c>
@@ -15142,7 +15148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>413</v>
       </c>
@@ -15158,7 +15164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>414</v>
       </c>
@@ -15174,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>415</v>
       </c>
@@ -15190,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>416</v>
       </c>
@@ -15206,7 +15212,7 @@
         <v>66.879822712279946</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>417</v>
       </c>
@@ -15222,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>418</v>
       </c>
@@ -15238,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>419</v>
       </c>
@@ -15254,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>420</v>
       </c>
@@ -15270,7 +15276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>421</v>
       </c>
@@ -15286,7 +15292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>422</v>
       </c>
@@ -15302,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>423</v>
       </c>
@@ -15318,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>424</v>
       </c>
@@ -15334,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>425</v>
       </c>
@@ -15350,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>426</v>
       </c>
@@ -15366,7 +15372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>427</v>
       </c>
@@ -15382,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>428</v>
       </c>
@@ -15398,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>429</v>
       </c>
@@ -15414,7 +15420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>430</v>
       </c>
@@ -15430,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>431</v>
       </c>
@@ -15446,7 +15452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>432</v>
       </c>
@@ -15462,7 +15468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>433</v>
       </c>
@@ -15478,7 +15484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>434</v>
       </c>
@@ -15494,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>435</v>
       </c>
@@ -15510,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>436</v>
       </c>
@@ -15526,7 +15532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>437</v>
       </c>
@@ -15542,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>438</v>
       </c>
@@ -15558,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>439</v>
       </c>
@@ -15574,7 +15580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>440</v>
       </c>
@@ -15590,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>441</v>
       </c>
@@ -15606,7 +15612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>442</v>
       </c>
@@ -15622,7 +15628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>443</v>
       </c>
@@ -15638,7 +15644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>444</v>
       </c>
@@ -15654,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>445</v>
       </c>
@@ -15670,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>446</v>
       </c>
@@ -15686,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>447</v>
       </c>
@@ -15702,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>448</v>
       </c>
@@ -15718,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>449</v>
       </c>
@@ -15734,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>450</v>
       </c>
@@ -15750,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>451</v>
       </c>
@@ -15766,7 +15772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>452</v>
       </c>
@@ -15782,7 +15788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>453</v>
       </c>
@@ -15798,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>454</v>
       </c>
@@ -15814,7 +15820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>455</v>
       </c>
@@ -15830,7 +15836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>456</v>
       </c>
@@ -15846,7 +15852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>457</v>
       </c>
@@ -15862,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>458</v>
       </c>
@@ -15878,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>459</v>
       </c>
@@ -15894,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>460</v>
       </c>
@@ -15910,7 +15916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>461</v>
       </c>
@@ -15926,7 +15932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>462</v>
       </c>
@@ -15942,7 +15948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>463</v>
       </c>
@@ -15958,7 +15964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>464</v>
       </c>
@@ -15974,7 +15980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>465</v>
       </c>
@@ -15990,7 +15996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>466</v>
       </c>
@@ -16006,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>467</v>
       </c>
@@ -16022,7 +16028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>468</v>
       </c>
@@ -16038,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>469</v>
       </c>
@@ -16054,7 +16060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>470</v>
       </c>
@@ -16070,7 +16076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>471</v>
       </c>
@@ -16086,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>472</v>
       </c>
@@ -16102,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>473</v>
       </c>
@@ -16118,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>474</v>
       </c>
@@ -16134,7 +16140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>475</v>
       </c>
@@ -16150,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>476</v>
       </c>
@@ -16166,7 +16172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>477</v>
       </c>
@@ -16182,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>478</v>
       </c>
@@ -16198,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>479</v>
       </c>
@@ -16214,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>480</v>
       </c>
@@ -16230,7 +16236,7 @@
         <v>64.309668632083302</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>481</v>
       </c>
@@ -16246,7 +16252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>482</v>
       </c>
@@ -16262,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>483</v>
       </c>
@@ -16278,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>484</v>
       </c>
@@ -16294,7 +16300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>485</v>
       </c>
@@ -16310,7 +16316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>486</v>
       </c>
@@ -16326,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>487</v>
       </c>
@@ -16342,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>488</v>
       </c>
@@ -16358,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>489</v>
       </c>
@@ -16374,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>490</v>
       </c>
@@ -16390,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>491</v>
       </c>
@@ -16406,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>492</v>
       </c>
@@ -16422,7 +16428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>493</v>
       </c>
@@ -16438,7 +16444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>494</v>
       </c>
@@ -16454,7 +16460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>495</v>
       </c>
@@ -16470,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>496</v>
       </c>
@@ -16486,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>497</v>
       </c>
@@ -16502,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>498</v>
       </c>
@@ -16518,7 +16524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>499</v>
       </c>
@@ -16534,7 +16540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>500</v>
       </c>
@@ -16550,7 +16556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>501</v>
       </c>
@@ -16566,7 +16572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>502</v>
       </c>
@@ -16582,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>503</v>
       </c>
@@ -16598,7 +16604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>504</v>
       </c>
@@ -16614,7 +16620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>505</v>
       </c>
@@ -16630,7 +16636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>506</v>
       </c>
@@ -16646,7 +16652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>507</v>
       </c>
@@ -16662,7 +16668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>508</v>
       </c>
@@ -16678,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>509</v>
       </c>
@@ -16694,7 +16700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>510</v>
       </c>
@@ -16710,7 +16716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>511</v>
       </c>
@@ -16726,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>512</v>
       </c>
@@ -16742,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>513</v>
       </c>
@@ -16758,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>514</v>
       </c>
@@ -16774,7 +16780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>515</v>
       </c>
@@ -16790,7 +16796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>516</v>
       </c>
@@ -16806,7 +16812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>517</v>
       </c>
@@ -16822,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>518</v>
       </c>
@@ -16838,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>519</v>
       </c>
@@ -16854,7 +16860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>520</v>
       </c>
@@ -16870,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>521</v>
       </c>
@@ -16886,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>522</v>
       </c>
@@ -16902,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>523</v>
       </c>
@@ -16918,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>524</v>
       </c>
@@ -16934,7 +16940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>525</v>
       </c>
@@ -16950,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>526</v>
       </c>
@@ -16966,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>527</v>
       </c>
@@ -16982,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>528</v>
       </c>
@@ -16998,7 +17004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>529</v>
       </c>
@@ -17014,7 +17020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>530</v>
       </c>
@@ -17030,7 +17036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>531</v>
       </c>
@@ -17046,7 +17052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>532</v>
       </c>
@@ -17062,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>533</v>
       </c>
@@ -17078,7 +17084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>534</v>
       </c>
@@ -17094,7 +17100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>535</v>
       </c>
@@ -17110,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>536</v>
       </c>
@@ -17126,7 +17132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>537</v>
       </c>
@@ -17142,7 +17148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>538</v>
       </c>
@@ -17158,7 +17164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>539</v>
       </c>
@@ -17174,7 +17180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>540</v>
       </c>
@@ -17190,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>541</v>
       </c>
@@ -17206,7 +17212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>542</v>
       </c>
@@ -17222,7 +17228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>543</v>
       </c>
@@ -17238,7 +17244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>544</v>
       </c>
@@ -17254,7 +17260,7 @@
         <v>64.309668632083913</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>545</v>
       </c>
@@ -17270,7 +17276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>546</v>
       </c>
@@ -17286,7 +17292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>547</v>
       </c>
@@ -17302,7 +17308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>548</v>
       </c>
@@ -17318,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>549</v>
       </c>
@@ -17334,7 +17340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>550</v>
       </c>
@@ -17350,7 +17356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>551</v>
       </c>
@@ -17366,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>552</v>
       </c>
@@ -17382,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>553</v>
       </c>
@@ -17398,7 +17404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>554</v>
       </c>
@@ -17414,7 +17420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>555</v>
       </c>
@@ -17430,7 +17436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>556</v>
       </c>
@@ -17446,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>557</v>
       </c>
@@ -17462,7 +17468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>558</v>
       </c>
@@ -17478,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>559</v>
       </c>
@@ -17494,7 +17500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>560</v>
       </c>
@@ -17510,7 +17516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>561</v>
       </c>
@@ -17526,7 +17532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>562</v>
       </c>
@@ -17542,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>563</v>
       </c>
@@ -17558,7 +17564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>564</v>
       </c>
@@ -17574,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>565</v>
       </c>
@@ -17590,7 +17596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>566</v>
       </c>
@@ -17606,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>567</v>
       </c>
@@ -17622,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>568</v>
       </c>
@@ -17638,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>569</v>
       </c>
@@ -17654,7 +17660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>570</v>
       </c>
@@ -17670,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>571</v>
       </c>
@@ -17686,7 +17692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>572</v>
       </c>
@@ -17702,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>573</v>
       </c>
@@ -17718,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>574</v>
       </c>
@@ -17734,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>575</v>
       </c>
@@ -17750,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>576</v>
       </c>
@@ -17766,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>577</v>
       </c>
@@ -17782,7 +17788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>578</v>
       </c>
@@ -17798,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>579</v>
       </c>
@@ -17814,7 +17820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>580</v>
       </c>
@@ -17830,7 +17836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>581</v>
       </c>
@@ -17846,7 +17852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>582</v>
       </c>
@@ -17862,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>583</v>
       </c>
@@ -17878,7 +17884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>584</v>
       </c>
@@ -17894,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>585</v>
       </c>
@@ -17910,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>586</v>
       </c>
@@ -17926,7 +17932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>587</v>
       </c>
@@ -17942,7 +17948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>588</v>
       </c>
@@ -17958,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>589</v>
       </c>
@@ -17974,7 +17980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>590</v>
       </c>
@@ -17990,7 +17996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>591</v>
       </c>
@@ -18006,7 +18012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>592</v>
       </c>
@@ -18022,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>593</v>
       </c>
@@ -18038,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>594</v>
       </c>
@@ -18054,7 +18060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>595</v>
       </c>
@@ -18070,7 +18076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>596</v>
       </c>
@@ -18086,7 +18092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>597</v>
       </c>
@@ -18102,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>598</v>
       </c>
@@ -18118,7 +18124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>599</v>
       </c>
@@ -18134,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>600</v>
       </c>
@@ -18150,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>601</v>
       </c>
@@ -18166,7 +18172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A604">
         <v>602</v>
       </c>
@@ -18182,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>603</v>
       </c>
@@ -18198,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A606">
         <v>604</v>
       </c>
@@ -18214,7 +18220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>605</v>
       </c>
@@ -18230,7 +18236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A608">
         <v>606</v>
       </c>
@@ -18246,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>607</v>
       </c>
@@ -18262,7 +18268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A610">
         <v>608</v>
       </c>
@@ -18278,7 +18284,7 @@
         <v>66.879822712280145</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>609</v>
       </c>
@@ -18294,7 +18300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A612">
         <v>610</v>
       </c>
@@ -18310,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>611</v>
       </c>
@@ -18326,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A614">
         <v>612</v>
       </c>
@@ -18342,7 +18348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>613</v>
       </c>
@@ -18358,7 +18364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A616">
         <v>614</v>
       </c>
@@ -18374,7 +18380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>615</v>
       </c>
@@ -18390,7 +18396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A618">
         <v>616</v>
       </c>
@@ -18406,7 +18412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>617</v>
       </c>
@@ -18422,7 +18428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A620">
         <v>618</v>
       </c>
@@ -18438,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>619</v>
       </c>
@@ -18454,7 +18460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A622">
         <v>620</v>
       </c>
@@ -18470,7 +18476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>621</v>
       </c>
@@ -18486,7 +18492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A624">
         <v>622</v>
       </c>
@@ -18502,7 +18508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>623</v>
       </c>
@@ -18518,7 +18524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A626">
         <v>624</v>
       </c>
@@ -18534,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>625</v>
       </c>
@@ -18550,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A628">
         <v>626</v>
       </c>
@@ -18566,7 +18572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>627</v>
       </c>
@@ -18582,7 +18588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A630">
         <v>628</v>
       </c>
@@ -18598,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>629</v>
       </c>
@@ -18614,7 +18620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A632">
         <v>630</v>
       </c>
@@ -18630,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>631</v>
       </c>
@@ -18646,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A634">
         <v>632</v>
       </c>
@@ -18662,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>633</v>
       </c>
@@ -18678,7 +18684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A636">
         <v>634</v>
       </c>
@@ -18694,7 +18700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>635</v>
       </c>
@@ -18710,7 +18716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A638">
         <v>636</v>
       </c>
@@ -18726,7 +18732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>637</v>
       </c>
@@ -18742,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A640">
         <v>638</v>
       </c>
@@ -18758,7 +18764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>639</v>
       </c>
@@ -18774,7 +18780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A642">
         <v>640</v>
       </c>
@@ -18790,7 +18796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>641</v>
       </c>
@@ -18806,7 +18812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A644">
         <v>642</v>
       </c>
@@ -18822,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>643</v>
       </c>
@@ -18838,7 +18844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A646">
         <v>644</v>
       </c>
@@ -18854,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>645</v>
       </c>
@@ -18870,7 +18876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A648">
         <v>646</v>
       </c>
@@ -18886,7 +18892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>647</v>
       </c>
@@ -18902,7 +18908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A650">
         <v>648</v>
       </c>
@@ -18918,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>649</v>
       </c>
@@ -18934,7 +18940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A652">
         <v>650</v>
       </c>
@@ -18950,7 +18956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>651</v>
       </c>
@@ -18966,7 +18972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A654">
         <v>652</v>
       </c>
@@ -18982,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>653</v>
       </c>
@@ -18998,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A656">
         <v>654</v>
       </c>
@@ -19014,7 +19020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>655</v>
       </c>
@@ -19030,7 +19036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A658">
         <v>656</v>
       </c>
@@ -19046,7 +19052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>657</v>
       </c>
@@ -19062,7 +19068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A660">
         <v>658</v>
       </c>
@@ -19078,7 +19084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A661">
         <v>659</v>
       </c>
@@ -19094,7 +19100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A662">
         <v>660</v>
       </c>
@@ -19110,7 +19116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A663">
         <v>661</v>
       </c>
@@ -19126,7 +19132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A664">
         <v>662</v>
       </c>
@@ -19142,7 +19148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A665">
         <v>663</v>
       </c>
@@ -19158,7 +19164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A666">
         <v>664</v>
       </c>
@@ -19174,7 +19180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A667">
         <v>665</v>
       </c>
@@ -19190,7 +19196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A668">
         <v>666</v>
       </c>
@@ -19206,7 +19212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A669">
         <v>667</v>
       </c>
@@ -19222,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A670">
         <v>668</v>
       </c>
@@ -19238,7 +19244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A671">
         <v>669</v>
       </c>
@@ -19254,7 +19260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A672">
         <v>670</v>
       </c>
@@ -19270,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A673">
         <v>671</v>
       </c>
@@ -19286,7 +19292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A674">
         <v>672</v>
       </c>
@@ -19302,7 +19308,7 @@
         <v>72.568836456493699</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A675">
         <v>673</v>
       </c>
@@ -19318,7 +19324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A676">
         <v>674</v>
       </c>
@@ -19334,7 +19340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A677">
         <v>675</v>
       </c>
@@ -19350,7 +19356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A678">
         <v>676</v>
       </c>
@@ -19366,7 +19372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A679">
         <v>677</v>
       </c>
@@ -19382,7 +19388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A680">
         <v>678</v>
       </c>
@@ -19398,7 +19404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A681">
         <v>679</v>
       </c>
@@ -19414,7 +19420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A682">
         <v>680</v>
       </c>
@@ -19430,7 +19436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A683">
         <v>681</v>
       </c>
@@ -19446,7 +19452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A684">
         <v>682</v>
       </c>
@@ -19462,7 +19468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A685">
         <v>683</v>
       </c>
@@ -19478,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A686">
         <v>684</v>
       </c>
@@ -19494,7 +19500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A687">
         <v>685</v>
       </c>
@@ -19510,7 +19516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A688">
         <v>686</v>
       </c>
@@ -19526,7 +19532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>687</v>
       </c>
@@ -19542,7 +19548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A690">
         <v>688</v>
       </c>
@@ -19558,7 +19564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>689</v>
       </c>
@@ -19574,7 +19580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A692">
         <v>690</v>
       </c>
@@ -19590,7 +19596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>691</v>
       </c>
@@ -19606,7 +19612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A694">
         <v>692</v>
       </c>
@@ -19622,7 +19628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A695">
         <v>693</v>
       </c>
@@ -19638,7 +19644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A696">
         <v>694</v>
       </c>
@@ -19654,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A697">
         <v>695</v>
       </c>
@@ -19670,7 +19676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A698">
         <v>696</v>
       </c>
@@ -19686,7 +19692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A699">
         <v>697</v>
       </c>
@@ -19702,7 +19708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A700">
         <v>698</v>
       </c>
@@ -19718,7 +19724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A701">
         <v>699</v>
       </c>
@@ -19734,7 +19740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A702">
         <v>700</v>
       </c>
@@ -19750,7 +19756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A703">
         <v>701</v>
       </c>
@@ -19766,7 +19772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A704">
         <v>702</v>
       </c>
@@ -19782,7 +19788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A705">
         <v>703</v>
       </c>
@@ -19798,7 +19804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A706">
         <v>704</v>
       </c>
@@ -19814,7 +19820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A707">
         <v>705</v>
       </c>
@@ -19830,7 +19836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A708">
         <v>706</v>
       </c>
@@ -19846,7 +19852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A709">
         <v>707</v>
       </c>
@@ -19862,7 +19868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A710">
         <v>708</v>
       </c>
@@ -19878,7 +19884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A711">
         <v>709</v>
       </c>
@@ -19894,7 +19900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A712">
         <v>710</v>
       </c>
@@ -19910,7 +19916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A713">
         <v>711</v>
       </c>
@@ -19926,7 +19932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A714">
         <v>712</v>
       </c>
@@ -19942,7 +19948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A715">
         <v>713</v>
       </c>
@@ -19958,7 +19964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A716">
         <v>714</v>
       </c>
@@ -19974,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A717">
         <v>715</v>
       </c>
@@ -19990,7 +19996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A718">
         <v>716</v>
       </c>
@@ -20006,7 +20012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A719">
         <v>717</v>
       </c>
@@ -20022,7 +20028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A720">
         <v>718</v>
       </c>
@@ -20038,7 +20044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A721">
         <v>719</v>
       </c>
@@ -20054,7 +20060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A722">
         <v>720</v>
       </c>
@@ -20070,7 +20076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A723">
         <v>721</v>
       </c>
@@ -20086,7 +20092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A724">
         <v>722</v>
       </c>
@@ -20102,7 +20108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A725">
         <v>723</v>
       </c>
@@ -20118,7 +20124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A726">
         <v>724</v>
       </c>
@@ -20134,7 +20140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A727">
         <v>725</v>
       </c>
@@ -20150,7 +20156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A728">
         <v>726</v>
       </c>
@@ -20166,7 +20172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A729">
         <v>727</v>
       </c>
@@ -20182,7 +20188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A730">
         <v>728</v>
       </c>
@@ -20198,7 +20204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A731">
         <v>729</v>
       </c>
@@ -20214,7 +20220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A732">
         <v>730</v>
       </c>
@@ -20230,7 +20236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A733">
         <v>731</v>
       </c>
@@ -20246,7 +20252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A734">
         <v>732</v>
       </c>
@@ -20262,7 +20268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A735">
         <v>733</v>
       </c>
@@ -20278,7 +20284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A736">
         <v>734</v>
       </c>
@@ -20294,7 +20300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A737">
         <v>735</v>
       </c>
@@ -20310,7 +20316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A738">
         <v>736</v>
       </c>
@@ -20326,7 +20332,7 @@
         <v>82.793188270078446</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A739">
         <v>737</v>
       </c>
@@ -20342,7 +20348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A740">
         <v>738</v>
       </c>
@@ -20358,7 +20364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A741">
         <v>739</v>
       </c>
@@ -20374,7 +20380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A742">
         <v>740</v>
       </c>
@@ -20390,7 +20396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A743">
         <v>741</v>
       </c>
@@ -20406,7 +20412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A744">
         <v>742</v>
       </c>
@@ -20422,7 +20428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A745">
         <v>743</v>
       </c>
@@ -20438,7 +20444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A746">
         <v>744</v>
       </c>
@@ -20454,7 +20460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A747">
         <v>745</v>
       </c>
@@ -20470,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A748">
         <v>746</v>
       </c>
@@ -20486,7 +20492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A749">
         <v>747</v>
       </c>
@@ -20502,7 +20508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A750">
         <v>748</v>
       </c>
@@ -20518,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A751">
         <v>749</v>
       </c>
@@ -20534,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A752">
         <v>750</v>
       </c>
@@ -20550,7 +20556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A753">
         <v>751</v>
       </c>
@@ -20566,7 +20572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A754">
         <v>752</v>
       </c>
@@ -20582,7 +20588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A755">
         <v>753</v>
       </c>
@@ -20598,7 +20604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A756">
         <v>754</v>
       </c>
@@ -20614,7 +20620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A757">
         <v>755</v>
       </c>
@@ -20630,7 +20636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A758">
         <v>756</v>
       </c>
@@ -20646,7 +20652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A759">
         <v>757</v>
       </c>
@@ -20662,7 +20668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A760">
         <v>758</v>
       </c>
@@ -20678,7 +20684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A761">
         <v>759</v>
       </c>
@@ -20694,7 +20700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A762">
         <v>760</v>
       </c>
@@ -20710,7 +20716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A763">
         <v>761</v>
       </c>
@@ -20726,7 +20732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A764">
         <v>762</v>
       </c>
@@ -20742,7 +20748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A765">
         <v>763</v>
       </c>
@@ -20758,7 +20764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A766">
         <v>764</v>
       </c>
@@ -20774,7 +20780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A767">
         <v>765</v>
       </c>
@@ -20790,7 +20796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A768">
         <v>766</v>
       </c>
@@ -20806,7 +20812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A769">
         <v>767</v>
       </c>
@@ -20822,7 +20828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A770">
         <v>768</v>
       </c>
@@ -20838,7 +20844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A771">
         <v>769</v>
       </c>
@@ -20854,7 +20860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A772">
         <v>770</v>
       </c>
@@ -20870,7 +20876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A773">
         <v>771</v>
       </c>
@@ -20886,7 +20892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A774">
         <v>772</v>
       </c>
@@ -20902,7 +20908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A775">
         <v>773</v>
       </c>
@@ -20918,7 +20924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A776">
         <v>774</v>
       </c>
@@ -20934,7 +20940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A777">
         <v>775</v>
       </c>
@@ -20950,7 +20956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A778">
         <v>776</v>
       </c>
@@ -20966,7 +20972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A779">
         <v>777</v>
       </c>
@@ -20982,7 +20988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A780">
         <v>778</v>
       </c>
@@ -20998,7 +21004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A781">
         <v>779</v>
       </c>
@@ -21014,7 +21020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A782">
         <v>780</v>
       </c>
@@ -21030,7 +21036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A783">
         <v>781</v>
       </c>
@@ -21046,7 +21052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A784">
         <v>782</v>
       </c>
@@ -21062,7 +21068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A785">
         <v>783</v>
       </c>
@@ -21078,7 +21084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A786">
         <v>784</v>
       </c>
@@ -21094,7 +21100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A787">
         <v>785</v>
       </c>
@@ -21110,7 +21116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A788">
         <v>786</v>
       </c>
@@ -21126,7 +21132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A789">
         <v>787</v>
       </c>
@@ -21142,7 +21148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A790">
         <v>788</v>
       </c>
@@ -21158,7 +21164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A791">
         <v>789</v>
       </c>
@@ -21174,7 +21180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A792">
         <v>790</v>
       </c>
@@ -21190,7 +21196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A793">
         <v>791</v>
       </c>
@@ -21206,7 +21212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A794">
         <v>792</v>
       </c>
@@ -21222,7 +21228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A795">
         <v>793</v>
       </c>
@@ -21238,7 +21244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A796">
         <v>794</v>
       </c>
@@ -21254,7 +21260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A797">
         <v>795</v>
       </c>
@@ -21270,7 +21276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A798">
         <v>796</v>
       </c>
@@ -21286,7 +21292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A799">
         <v>797</v>
       </c>
@@ -21302,7 +21308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A800">
         <v>798</v>
       </c>
@@ -21318,7 +21324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A801">
         <v>799</v>
       </c>
@@ -21334,7 +21340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A802">
         <v>800</v>
       </c>
@@ -21350,7 +21356,7 @@
         <v>100.8837918017601</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A803">
         <v>801</v>
       </c>
@@ -21366,7 +21372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A804">
         <v>802</v>
       </c>
@@ -21382,7 +21388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A805">
         <v>803</v>
       </c>
@@ -21398,7 +21404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A806">
         <v>804</v>
       </c>
@@ -21414,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A807">
         <v>805</v>
       </c>
@@ -21430,7 +21436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A808">
         <v>806</v>
       </c>
@@ -21446,7 +21452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A809">
         <v>807</v>
       </c>
@@ -21462,7 +21468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A810">
         <v>808</v>
       </c>
@@ -21478,7 +21484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A811">
         <v>809</v>
       </c>
@@ -21494,7 +21500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A812">
         <v>810</v>
       </c>
@@ -21510,7 +21516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A813">
         <v>811</v>
       </c>
@@ -21526,7 +21532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A814">
         <v>812</v>
       </c>
@@ -21542,7 +21548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A815">
         <v>813</v>
       </c>
@@ -21558,7 +21564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A816">
         <v>814</v>
       </c>
@@ -21574,7 +21580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A817">
         <v>815</v>
       </c>
@@ -21590,7 +21596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A818">
         <v>816</v>
       </c>
@@ -21606,7 +21612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A819">
         <v>817</v>
       </c>
@@ -21622,7 +21628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A820">
         <v>818</v>
       </c>
@@ -21638,7 +21644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A821">
         <v>819</v>
       </c>
@@ -21654,7 +21660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A822">
         <v>820</v>
       </c>
@@ -21670,7 +21676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A823">
         <v>821</v>
       </c>
@@ -21686,7 +21692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A824">
         <v>822</v>
       </c>
@@ -21702,7 +21708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A825">
         <v>823</v>
       </c>
@@ -21718,7 +21724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A826">
         <v>824</v>
       </c>
@@ -21734,7 +21740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A827">
         <v>825</v>
       </c>
@@ -21750,7 +21756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A828">
         <v>826</v>
       </c>
@@ -21766,7 +21772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A829">
         <v>827</v>
       </c>
@@ -21782,7 +21788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A830">
         <v>828</v>
       </c>
@@ -21798,7 +21804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A831">
         <v>829</v>
       </c>
@@ -21814,7 +21820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A832">
         <v>830</v>
       </c>
@@ -21830,7 +21836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A833">
         <v>831</v>
       </c>
@@ -21846,7 +21852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A834">
         <v>832</v>
       </c>
@@ -21862,7 +21868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A835">
         <v>833</v>
       </c>
@@ -21878,7 +21884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A836">
         <v>834</v>
       </c>
@@ -21894,7 +21900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A837">
         <v>835</v>
       </c>
@@ -21910,7 +21916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A838">
         <v>836</v>
       </c>
@@ -21926,7 +21932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A839">
         <v>837</v>
       </c>
@@ -21942,7 +21948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A840">
         <v>838</v>
       </c>
@@ -21958,7 +21964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A841">
         <v>839</v>
       </c>
@@ -21974,7 +21980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A842">
         <v>840</v>
       </c>
@@ -21990,7 +21996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A843">
         <v>841</v>
       </c>
@@ -22006,7 +22012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A844">
         <v>842</v>
       </c>
@@ -22022,7 +22028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A845">
         <v>843</v>
       </c>
@@ -22038,7 +22044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A846">
         <v>844</v>
       </c>
@@ -22054,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A847">
         <v>845</v>
       </c>
@@ -22070,7 +22076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A848">
         <v>846</v>
       </c>
@@ -22086,7 +22092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A849">
         <v>847</v>
       </c>
@@ -22102,7 +22108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A850">
         <v>848</v>
       </c>
@@ -22118,7 +22124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A851">
         <v>849</v>
       </c>
@@ -22134,7 +22140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A852">
         <v>850</v>
       </c>
@@ -22150,7 +22156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A853">
         <v>851</v>
       </c>
@@ -22166,7 +22172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A854">
         <v>852</v>
       </c>
@@ -22182,7 +22188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A855">
         <v>853</v>
       </c>
@@ -22198,7 +22204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A856">
         <v>854</v>
       </c>
@@ -22214,7 +22220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A857">
         <v>855</v>
       </c>
@@ -22230,7 +22236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A858">
         <v>856</v>
       </c>
@@ -22246,7 +22252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A859">
         <v>857</v>
       </c>
@@ -22262,7 +22268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A860">
         <v>858</v>
       </c>
@@ -22278,7 +22284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A861">
         <v>859</v>
       </c>
@@ -22294,7 +22300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A862">
         <v>860</v>
       </c>
@@ -22310,7 +22316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A863">
         <v>861</v>
       </c>
@@ -22326,7 +22332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A864">
         <v>862</v>
       </c>
@@ -22342,7 +22348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A865">
         <v>863</v>
       </c>
@@ -22358,7 +22364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A866">
         <v>864</v>
       </c>
@@ -22374,7 +22380,7 @@
         <v>135.76674380676474</v>
       </c>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A867">
         <v>865</v>
       </c>
@@ -22390,7 +22396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A868">
         <v>866</v>
       </c>
@@ -22406,7 +22412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A869">
         <v>867</v>
       </c>
@@ -22422,7 +22428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A870">
         <v>868</v>
       </c>
@@ -22438,7 +22444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A871">
         <v>869</v>
       </c>
@@ -22454,7 +22460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A872">
         <v>870</v>
       </c>
@@ -22470,7 +22476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A873">
         <v>871</v>
       </c>
@@ -22486,7 +22492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A874">
         <v>872</v>
       </c>
@@ -22502,7 +22508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A875">
         <v>873</v>
       </c>
@@ -22518,7 +22524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A876">
         <v>874</v>
       </c>
@@ -22534,7 +22540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A877">
         <v>875</v>
       </c>
@@ -22550,7 +22556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A878">
         <v>876</v>
       </c>
@@ -22566,7 +22572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A879">
         <v>877</v>
       </c>
@@ -22582,7 +22588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A880">
         <v>878</v>
       </c>
@@ -22598,7 +22604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A881">
         <v>879</v>
       </c>
@@ -22614,7 +22620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A882">
         <v>880</v>
       </c>
@@ -22630,7 +22636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A883">
         <v>881</v>
       </c>
@@ -22646,7 +22652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A884">
         <v>882</v>
       </c>
@@ -22662,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A885">
         <v>883</v>
       </c>
@@ -22678,7 +22684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A886">
         <v>884</v>
       </c>
@@ -22694,7 +22700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A887">
         <v>885</v>
       </c>
@@ -22710,7 +22716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A888">
         <v>886</v>
       </c>
@@ -22726,7 +22732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A889">
         <v>887</v>
       </c>
@@ -22742,7 +22748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A890">
         <v>888</v>
       </c>
@@ -22758,7 +22764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A891">
         <v>889</v>
       </c>
@@ -22774,7 +22780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A892">
         <v>890</v>
       </c>
@@ -22790,7 +22796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A893">
         <v>891</v>
       </c>
@@ -22806,7 +22812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A894">
         <v>892</v>
       </c>
@@ -22822,7 +22828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A895">
         <v>893</v>
       </c>
@@ -22838,7 +22844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A896">
         <v>894</v>
       </c>
@@ -22854,7 +22860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A897">
         <v>895</v>
       </c>
@@ -22870,7 +22876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A898">
         <v>896</v>
       </c>
@@ -22886,7 +22892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A899">
         <v>897</v>
       </c>
@@ -22902,7 +22908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A900">
         <v>898</v>
       </c>
@@ -22918,7 +22924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A901">
         <v>899</v>
       </c>
@@ -22934,7 +22940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A902">
         <v>900</v>
       </c>
@@ -22950,7 +22956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A903">
         <v>901</v>
       </c>
@@ -22966,7 +22972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A904">
         <v>902</v>
       </c>
@@ -22982,7 +22988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A905">
         <v>903</v>
       </c>
@@ -22998,7 +23004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A906">
         <v>904</v>
       </c>
@@ -23014,7 +23020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A907">
         <v>905</v>
       </c>
@@ -23030,7 +23036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A908">
         <v>906</v>
       </c>
@@ -23046,7 +23052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A909">
         <v>907</v>
       </c>
@@ -23062,7 +23068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A910">
         <v>908</v>
       </c>
@@ -23078,7 +23084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A911">
         <v>909</v>
       </c>
@@ -23094,7 +23100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A912">
         <v>910</v>
       </c>
@@ -23110,7 +23116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A913">
         <v>911</v>
       </c>
@@ -23126,7 +23132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A914">
         <v>912</v>
       </c>
@@ -23142,7 +23148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A915">
         <v>913</v>
       </c>
@@ -23158,7 +23164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A916">
         <v>914</v>
       </c>
@@ -23174,7 +23180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A917">
         <v>915</v>
       </c>
@@ -23190,7 +23196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A918">
         <v>916</v>
       </c>
@@ -23206,7 +23212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A919">
         <v>917</v>
       </c>
@@ -23222,7 +23228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A920">
         <v>918</v>
       </c>
@@ -23238,7 +23244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A921">
         <v>919</v>
       </c>
@@ -23254,7 +23260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A922">
         <v>920</v>
       </c>
@@ -23270,7 +23276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A923">
         <v>921</v>
       </c>
@@ -23286,7 +23292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A924">
         <v>922</v>
       </c>
@@ -23302,7 +23308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A925">
         <v>923</v>
       </c>
@@ -23318,7 +23324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A926">
         <v>924</v>
       </c>
@@ -23334,7 +23340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A927">
         <v>925</v>
       </c>
@@ -23350,7 +23356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A928">
         <v>926</v>
       </c>
@@ -23366,7 +23372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A929">
         <v>927</v>
       </c>
@@ -23382,7 +23388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A930">
         <v>928</v>
       </c>
@@ -23398,7 +23404,7 @@
         <v>220.47322857450638</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A931">
         <v>929</v>
       </c>
@@ -23414,7 +23420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A932">
         <v>930</v>
       </c>
@@ -23430,7 +23436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A933">
         <v>931</v>
       </c>
@@ -23446,7 +23452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A934">
         <v>932</v>
       </c>
@@ -23462,7 +23468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A935">
         <v>933</v>
       </c>
@@ -23478,7 +23484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A936">
         <v>934</v>
       </c>
@@ -23494,7 +23500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A937">
         <v>935</v>
       </c>
@@ -23510,7 +23516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A938">
         <v>936</v>
       </c>
@@ -23526,7 +23532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A939">
         <v>937</v>
       </c>
@@ -23542,7 +23548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A940">
         <v>938</v>
       </c>
@@ -23558,7 +23564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A941">
         <v>939</v>
       </c>
@@ -23574,7 +23580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A942">
         <v>940</v>
       </c>
@@ -23590,7 +23596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A943">
         <v>941</v>
       </c>
@@ -23606,7 +23612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A944">
         <v>942</v>
       </c>
@@ -23622,7 +23628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A945">
         <v>943</v>
       </c>
@@ -23638,7 +23644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A946">
         <v>944</v>
       </c>
@@ -23654,7 +23660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A947">
         <v>945</v>
       </c>
@@ -23670,7 +23676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A948">
         <v>946</v>
       </c>
@@ -23686,7 +23692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A949">
         <v>947</v>
       </c>
@@ -23702,7 +23708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A950">
         <v>948</v>
       </c>
@@ -23718,7 +23724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A951">
         <v>949</v>
       </c>
@@ -23734,7 +23740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A952">
         <v>950</v>
       </c>
@@ -23750,7 +23756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A953">
         <v>951</v>
       </c>
@@ -23766,7 +23772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A954">
         <v>952</v>
       </c>
@@ -23782,7 +23788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A955">
         <v>953</v>
       </c>
@@ -23798,7 +23804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A956">
         <v>954</v>
       </c>
@@ -23814,7 +23820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A957">
         <v>955</v>
       </c>
@@ -23830,7 +23836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A958">
         <v>956</v>
       </c>
@@ -23846,7 +23852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A959">
         <v>957</v>
       </c>
@@ -23862,7 +23868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A960">
         <v>958</v>
       </c>
@@ -23878,7 +23884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A961">
         <v>959</v>
       </c>
@@ -23894,7 +23900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A962">
         <v>960</v>
       </c>
@@ -23910,7 +23916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A963">
         <v>961</v>
       </c>
@@ -23926,7 +23932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A964">
         <v>962</v>
       </c>
@@ -23942,7 +23948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A965">
         <v>963</v>
       </c>
@@ -23958,7 +23964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A966">
         <v>964</v>
       </c>
@@ -23974,7 +23980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A967">
         <v>965</v>
       </c>
@@ -23990,7 +23996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A968">
         <v>966</v>
       </c>
@@ -24006,7 +24012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A969">
         <v>967</v>
       </c>
@@ -24022,7 +24028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A970">
         <v>968</v>
       </c>
@@ -24038,7 +24044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A971">
         <v>969</v>
       </c>
@@ -24054,7 +24060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A972">
         <v>970</v>
       </c>
@@ -24070,7 +24076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A973">
         <v>971</v>
       </c>
@@ -24086,7 +24092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A974">
         <v>972</v>
       </c>
@@ -24102,7 +24108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A975">
         <v>973</v>
       </c>
@@ -24118,7 +24124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A976">
         <v>974</v>
       </c>
@@ -24134,7 +24140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A977">
         <v>975</v>
       </c>
@@ -24150,7 +24156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A978">
         <v>976</v>
       </c>
@@ -24166,7 +24172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A979">
         <v>977</v>
       </c>
@@ -24182,7 +24188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A980">
         <v>978</v>
       </c>
@@ -24198,7 +24204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A981">
         <v>979</v>
       </c>
@@ -24214,7 +24220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A982">
         <v>980</v>
       </c>
@@ -24230,7 +24236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A983">
         <v>981</v>
       </c>
@@ -24246,7 +24252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A984">
         <v>982</v>
       </c>
@@ -24262,7 +24268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A985">
         <v>983</v>
       </c>
@@ -24278,7 +24284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A986">
         <v>984</v>
       </c>
@@ -24294,7 +24300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A987">
         <v>985</v>
       </c>
@@ -24310,7 +24316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A988">
         <v>986</v>
       </c>
@@ -24326,7 +24332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A989">
         <v>987</v>
       </c>
@@ -24342,7 +24348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A990">
         <v>988</v>
       </c>
@@ -24358,7 +24364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A991">
         <v>989</v>
       </c>
@@ -24374,7 +24380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A992">
         <v>990</v>
       </c>
@@ -24390,7 +24396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A993">
         <v>991</v>
       </c>
@@ -24406,7 +24412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A994">
         <v>992</v>
       </c>
@@ -24422,7 +24428,7 @@
         <v>652.94702319221324</v>
       </c>
     </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A995">
         <v>993</v>
       </c>
@@ -24438,7 +24444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A996">
         <v>994</v>
       </c>
@@ -24454,7 +24460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A997">
         <v>995</v>
       </c>
@@ -24470,7 +24476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A998">
         <v>996</v>
       </c>
@@ -24486,7 +24492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A999">
         <v>997</v>
       </c>
@@ -24502,7 +24508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1000">
         <v>998</v>
       </c>
@@ -24518,7 +24524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1001">
         <v>999</v>
       </c>
@@ -24534,7 +24540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1002">
         <v>1000</v>
       </c>
@@ -24550,7 +24556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1003">
         <v>1001</v>
       </c>
@@ -24566,7 +24572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1004">
         <v>1002</v>
       </c>
@@ -24582,7 +24588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1005">
         <v>1003</v>
       </c>
@@ -24598,7 +24604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1006">
         <v>1004</v>
       </c>
@@ -24614,7 +24620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1007">
         <v>1005</v>
       </c>
@@ -24630,7 +24636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1008">
         <v>1006</v>
       </c>
@@ -24646,7 +24652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1009">
         <v>1007</v>
       </c>
@@ -24662,7 +24668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1010">
         <v>1008</v>
       </c>
@@ -24678,7 +24684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1011">
         <v>1009</v>
       </c>
@@ -24694,7 +24700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1012">
         <v>1010</v>
       </c>
@@ -24710,7 +24716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1013">
         <v>1011</v>
       </c>
@@ -24726,7 +24732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1014">
         <v>1012</v>
       </c>
@@ -24742,7 +24748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1015">
         <v>1013</v>
       </c>
@@ -24758,7 +24764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1016">
         <v>1014</v>
       </c>
@@ -24774,7 +24780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1017">
         <v>1015</v>
       </c>
@@ -24790,7 +24796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1018">
         <v>1016</v>
       </c>
@@ -24806,7 +24812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1019">
         <v>1017</v>
       </c>
@@ -24822,7 +24828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1020">
         <v>1018</v>
       </c>
@@ -24838,7 +24844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1021">
         <v>1019</v>
       </c>
@@ -24854,7 +24860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1022">
         <v>1020</v>
       </c>
@@ -24870,7 +24876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1023">
         <v>1021</v>
       </c>
@@ -24886,7 +24892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1024">
         <v>1022</v>
       </c>
@@ -24902,7 +24908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1025">
         <v>1023</v>
       </c>
@@ -24923,8 +24929,9 @@
   <hyperlinks>
     <hyperlink ref="G17" r:id="rId1" display="https://blog.csdn.net/weixin_39591031/article/details/110392352"/>
     <hyperlink ref="G18" r:id="rId2" display="https://blog.csdn.net/WaliTool/article/details/114369679?utm_medium=distribute.pc_relevant.none-task-blog-2~default~baidujs_baidulandingword~default-0-114369679-blog-124021576.235%5ev43%5epc_blog_bottom_relevance_base4&amp;spm=1001.2101.3001.4242.1&amp;utm_relevant_index=3"/>
+    <hyperlink ref="G19" r:id="rId3" display="https://blog.csdn.net/golfbears/article/details/121014273"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>